--- a/biology/Médecine/Traction_(orthopédie)/Traction_(orthopédie).xlsx
+++ b/biology/Médecine/Traction_(orthopédie)/Traction_(orthopédie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Traction_(orthop%C3%A9die)</t>
+          <t>Traction_(orthopédie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine orthopédique, une traction fait référence à une série de mécanismes visant à corriger des os brisés ou à diminuer la pression sur la colonne vertébrale[1] et le squelette. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine orthopédique, une traction fait référence à une série de mécanismes visant à corriger des os brisés ou à diminuer la pression sur la colonne vertébrale et le squelette. 
 Il existe deux types de tractions : les tractions cutanées et les tractions squelettiques.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Traction_(orthop%C3%A9die)</t>
+          <t>Traction_(orthopédie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les techniques de traction ont pris plusieurs formes au cours de l'histoire.
 Voici quelques techniques modernes de tractions :
 orthèse Milwaukee (en)
 traction de Bryant (en)
-traction de Buck (en), impliquant une traction cutanée. Très utilisée pour les fractures fémorales (en), lombalgies, fractures acétabulaires (en) et les fractures de l'extrémité supérieure du fémur[2].
+traction de Buck (en), impliquant une traction cutanée. Très utilisée pour les fractures fémorales (en), lombalgies, fractures acétabulaires (en) et les fractures de l'extrémité supérieure du fémur.
 traction de Dunlop, utilisée pour traiter les fractures de l'humérus chez les enfants,
 traction de Russell,
 traction cervicale,
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Traction_(orthop%C3%A9die)</t>
+          <t>Traction_(orthopédie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
